--- a/teste.xlsx
+++ b/teste.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,9 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,12 +54,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +441,7 @@
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hapvida - 12/12/12 - 12:12</t>
+          <t>Hapvida - 12/11/2023 - 18:20</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -498,37 +504,37 @@
       <c r="BG1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
-      <c r="AA2" s="2" t="n"/>
-      <c r="AB2" s="2" t="n"/>
-      <c r="AC2" s="2" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="n"/>
+      <c r="V2" s="3" t="n"/>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="3" t="n"/>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="3" t="n"/>
+      <c r="AA2" s="3" t="n"/>
+      <c r="AB2" s="3" t="n"/>
+      <c r="AC2" s="3" t="n"/>
       <c r="AD2" s="2" t="n"/>
       <c r="AE2" s="2" t="n"/>
       <c r="AF2" s="2" t="n"/>
